--- a/results2.xlsx
+++ b/results2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7651,6 +7651,4704 @@
         <v>66.52954268455505</v>
       </c>
     </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>400</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251">
+        <v>278.0098834014844</v>
+      </c>
+      <c r="G251">
+        <v>1.305411577224731</v>
+      </c>
+      <c r="H251">
+        <v>273.5927322436877</v>
+      </c>
+      <c r="I251">
+        <v>1522.329564094543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>400</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252">
+        <v>281.2030968563244</v>
+      </c>
+      <c r="G252">
+        <v>1.958831787109375</v>
+      </c>
+      <c r="H252">
+        <v>248.9645743569216</v>
+      </c>
+      <c r="I252">
+        <v>88.05464887619019</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>400</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>273.404672798221</v>
+      </c>
+      <c r="G253">
+        <v>3.789274930953979</v>
+      </c>
+      <c r="H253">
+        <v>265.745235527616</v>
+      </c>
+      <c r="I253">
+        <v>95.24411034584045</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>400</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>270.1618082000512</v>
+      </c>
+      <c r="G254">
+        <v>3.149799823760986</v>
+      </c>
+      <c r="H254">
+        <v>260.7829735786257</v>
+      </c>
+      <c r="I254">
+        <v>1600.774246454239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>400</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>262.3467639114079</v>
+      </c>
+      <c r="G255">
+        <v>1.888730049133301</v>
+      </c>
+      <c r="H255">
+        <v>252.1234393163315</v>
+      </c>
+      <c r="I255">
+        <v>753.1294987201691</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>400</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>15</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>284.1327155024903</v>
+      </c>
+      <c r="G256">
+        <v>3.150285959243774</v>
+      </c>
+      <c r="H256">
+        <v>273.2430648111396</v>
+      </c>
+      <c r="I256">
+        <v>1319.262382745743</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>400</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257">
+        <v>16</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257">
+        <v>280.9980121825031</v>
+      </c>
+      <c r="G257">
+        <v>3.121247291564941</v>
+      </c>
+      <c r="H257">
+        <v>264.1530363515425</v>
+      </c>
+      <c r="I257">
+        <v>78.5025486946106</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>400</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>17</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>263.7929716293006</v>
+      </c>
+      <c r="G258">
+        <v>3.142426729202271</v>
+      </c>
+      <c r="H258">
+        <v>253.7950822344236</v>
+      </c>
+      <c r="I258">
+        <v>74.33833169937134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>400</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259">
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>287.0640297801057</v>
+      </c>
+      <c r="G259">
+        <v>3.324384212493896</v>
+      </c>
+      <c r="H259">
+        <v>274.8183421192966</v>
+      </c>
+      <c r="I259">
+        <v>266.6565940380096</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>400</v>
+      </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>19</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260">
+        <v>280.2346839189064</v>
+      </c>
+      <c r="G260">
+        <v>2.851684808731079</v>
+      </c>
+      <c r="H260">
+        <v>268.6794186147924</v>
+      </c>
+      <c r="I260">
+        <v>91.31099820137024</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>400</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>273.3122642919984</v>
+      </c>
+      <c r="G261">
+        <v>1.606440782546997</v>
+      </c>
+      <c r="H261">
+        <v>260.1188629017317</v>
+      </c>
+      <c r="I261">
+        <v>96.35991406440735</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>400</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262">
+        <v>21</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <v>265.6520454885118</v>
+      </c>
+      <c r="G262">
+        <v>3.092702388763428</v>
+      </c>
+      <c r="H262">
+        <v>254.7761360536477</v>
+      </c>
+      <c r="I262">
+        <v>83.67543411254883</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>400</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>22</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263">
+        <v>279.2121181240836</v>
+      </c>
+      <c r="G263">
+        <v>2.221385478973389</v>
+      </c>
+      <c r="H263">
+        <v>263.0921167751592</v>
+      </c>
+      <c r="I263">
+        <v>76.90416884422302</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>400</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>23</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>281.2335420013312</v>
+      </c>
+      <c r="G264">
+        <v>1.88658618927002</v>
+      </c>
+      <c r="H264">
+        <v>274.9398178838245</v>
+      </c>
+      <c r="I264">
+        <v>4887.399546384811</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>400</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265">
+        <v>24</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>272.6532755317569</v>
+      </c>
+      <c r="G265">
+        <v>1.606745481491089</v>
+      </c>
+      <c r="H265">
+        <v>252.6148228841773</v>
+      </c>
+      <c r="I265">
+        <v>4851.867728948593</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>400</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>25</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266">
+        <v>270.9470267686049</v>
+      </c>
+      <c r="G266">
+        <v>3.368031740188599</v>
+      </c>
+      <c r="H266">
+        <v>256.3888971284524</v>
+      </c>
+      <c r="I266">
+        <v>76.64405417442322</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>400</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>26</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267">
+        <v>291.130170762674</v>
+      </c>
+      <c r="G267">
+        <v>2.291917562484741</v>
+      </c>
+      <c r="H267">
+        <v>273.9468917048885</v>
+      </c>
+      <c r="I267">
+        <v>83.70088458061218</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>400</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>27</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268">
+        <v>278.4959556343723</v>
+      </c>
+      <c r="G268">
+        <v>1.605745315551758</v>
+      </c>
+      <c r="H268">
+        <v>262.6341971316921</v>
+      </c>
+      <c r="I268">
+        <v>73.20797753334045</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>400</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>28</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>279.6705341509297</v>
+      </c>
+      <c r="G269">
+        <v>2.507297992706299</v>
+      </c>
+      <c r="H269">
+        <v>272.49567857856</v>
+      </c>
+      <c r="I269">
+        <v>632.9943571090698</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>400</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>29</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270">
+        <v>263.8532892177343</v>
+      </c>
+      <c r="G270">
+        <v>2.002198934555054</v>
+      </c>
+      <c r="H270">
+        <v>258.607903489996</v>
+      </c>
+      <c r="I270">
+        <v>4931.026775121689</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>400</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271">
+        <v>30</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>286.7085850412273</v>
+      </c>
+      <c r="G271">
+        <v>1.719404458999634</v>
+      </c>
+      <c r="H271">
+        <v>267.1550856211295</v>
+      </c>
+      <c r="I271">
+        <v>5042.592548370361</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>400</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>208.1820874159239</v>
+      </c>
+      <c r="G272">
+        <v>4.270417928695679</v>
+      </c>
+      <c r="H272">
+        <v>189.8758898457174</v>
+      </c>
+      <c r="I272">
+        <v>1317.049817562103</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>400</v>
+      </c>
+      <c r="C273">
+        <v>10</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>202.4737771940138</v>
+      </c>
+      <c r="G273">
+        <v>4.022351503372192</v>
+      </c>
+      <c r="H273">
+        <v>189.9709193481824</v>
+      </c>
+      <c r="I273">
+        <v>55.32944273948669</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>400</v>
+      </c>
+      <c r="C274">
+        <v>10</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274">
+        <v>216.3112405070233</v>
+      </c>
+      <c r="G274">
+        <v>4.922842264175415</v>
+      </c>
+      <c r="H274">
+        <v>189.6672169847468</v>
+      </c>
+      <c r="I274">
+        <v>51.56357932090759</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>400</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275">
+        <v>203.6740371801765</v>
+      </c>
+      <c r="G275">
+        <v>5.019620656967163</v>
+      </c>
+      <c r="H275">
+        <v>191.6289909859176</v>
+      </c>
+      <c r="I275">
+        <v>325.1149439811707</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>400</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276">
+        <v>188.9937884903078</v>
+      </c>
+      <c r="G276">
+        <v>3.018929958343506</v>
+      </c>
+      <c r="H276">
+        <v>177.1051352766633</v>
+      </c>
+      <c r="I276">
+        <v>52.93735694885254</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>400</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>195.219977929579</v>
+      </c>
+      <c r="G277">
+        <v>3.456794738769531</v>
+      </c>
+      <c r="H277">
+        <v>185.3781454491504</v>
+      </c>
+      <c r="I277">
+        <v>52.36166977882385</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>400</v>
+      </c>
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>200.9699194596754</v>
+      </c>
+      <c r="G278">
+        <v>3.922659635543823</v>
+      </c>
+      <c r="H278">
+        <v>182.3653467886152</v>
+      </c>
+      <c r="I278">
+        <v>64.5486433506012</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>400</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279">
+        <v>190.4213870954937</v>
+      </c>
+      <c r="G279">
+        <v>3.524581432342529</v>
+      </c>
+      <c r="H279">
+        <v>180.3062846096301</v>
+      </c>
+      <c r="I279">
+        <v>331.8973438739777</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>400</v>
+      </c>
+      <c r="C280">
+        <v>10</v>
+      </c>
+      <c r="D280">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280">
+        <v>213.295271337986</v>
+      </c>
+      <c r="G280">
+        <v>5.111337661743164</v>
+      </c>
+      <c r="H280">
+        <v>194.9119439478226</v>
+      </c>
+      <c r="I280">
+        <v>246.4365067481995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>400</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+      <c r="D281">
+        <v>10</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>205.3135327002446</v>
+      </c>
+      <c r="G281">
+        <v>5.008730888366699</v>
+      </c>
+      <c r="H281">
+        <v>194.8781814638203</v>
+      </c>
+      <c r="I281">
+        <v>1058.505270957947</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>400</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+      <c r="D282">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282">
+        <v>188.4243933482232</v>
+      </c>
+      <c r="G282">
+        <v>3.053910970687866</v>
+      </c>
+      <c r="H282">
+        <v>180.6686306632842</v>
+      </c>
+      <c r="I282">
+        <v>50.96196866035461</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>400</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+      <c r="D283">
+        <v>12</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283">
+        <v>194.4416336830057</v>
+      </c>
+      <c r="G283">
+        <v>3.494684457778931</v>
+      </c>
+      <c r="H283">
+        <v>184.9206797797611</v>
+      </c>
+      <c r="I283">
+        <v>47.05937314033508</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>400</v>
+      </c>
+      <c r="C284">
+        <v>10</v>
+      </c>
+      <c r="D284">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284">
+        <v>207.3083713320044</v>
+      </c>
+      <c r="G284">
+        <v>3.041505098342896</v>
+      </c>
+      <c r="H284">
+        <v>188.3059444154841</v>
+      </c>
+      <c r="I284">
+        <v>52.07525992393494</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>400</v>
+      </c>
+      <c r="C285">
+        <v>10</v>
+      </c>
+      <c r="D285">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285">
+        <v>191.3642766995622</v>
+      </c>
+      <c r="G285">
+        <v>5.75071382522583</v>
+      </c>
+      <c r="H285">
+        <v>185.5061803832222</v>
+      </c>
+      <c r="I285">
+        <v>586.3312165737152</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>400</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+      <c r="D286">
+        <v>15</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286">
+        <v>209.2022678288747</v>
+      </c>
+      <c r="G286">
+        <v>2.503428220748901</v>
+      </c>
+      <c r="H286">
+        <v>193.9663048778971</v>
+      </c>
+      <c r="I286">
+        <v>259.6876955032349</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>400</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+      <c r="D287">
+        <v>16</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287">
+        <v>211.0849334755789</v>
+      </c>
+      <c r="G287">
+        <v>3.526609420776367</v>
+      </c>
+      <c r="H287">
+        <v>189.0230504485892</v>
+      </c>
+      <c r="I287">
+        <v>46.96426963806152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>400</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+      <c r="D288">
+        <v>17</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288">
+        <v>192.8227725834274</v>
+      </c>
+      <c r="G288">
+        <v>3.561208963394165</v>
+      </c>
+      <c r="H288">
+        <v>181.1411560643185</v>
+      </c>
+      <c r="I288">
+        <v>563.6445729732513</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>400</v>
+      </c>
+      <c r="C289">
+        <v>10</v>
+      </c>
+      <c r="D289">
+        <v>18</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289">
+        <v>209.4213330543634</v>
+      </c>
+      <c r="G289">
+        <v>2.560235500335693</v>
+      </c>
+      <c r="H289">
+        <v>192.6022562946175</v>
+      </c>
+      <c r="I289">
+        <v>2442.632264852524</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>400</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290">
+        <v>19</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290">
+        <v>211.401205968718</v>
+      </c>
+      <c r="G290">
+        <v>5.183340311050415</v>
+      </c>
+      <c r="H290">
+        <v>192.3845381918896</v>
+      </c>
+      <c r="I290">
+        <v>1167.075618505478</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>400</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>20</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291">
+        <v>188.6597796750909</v>
+      </c>
+      <c r="G291">
+        <v>5.192218542098999</v>
+      </c>
+      <c r="H291">
+        <v>186.6704992529769</v>
+      </c>
+      <c r="I291">
+        <v>49.77826857566833</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>400</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>21</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292">
+        <v>189.3699502849976</v>
+      </c>
+      <c r="G292">
+        <v>3.902604579925537</v>
+      </c>
+      <c r="H292">
+        <v>180.7677601059894</v>
+      </c>
+      <c r="I292">
+        <v>51.29127907752991</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>400</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293">
+        <v>22</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293">
+        <v>193.9390604885587</v>
+      </c>
+      <c r="G293">
+        <v>4.039919137954712</v>
+      </c>
+      <c r="H293">
+        <v>187.2981767436888</v>
+      </c>
+      <c r="I293">
+        <v>213.9199602603912</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>400</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <v>23</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294">
+        <v>211.2915597386908</v>
+      </c>
+      <c r="G294">
+        <v>3.517598867416382</v>
+      </c>
+      <c r="H294">
+        <v>194.6599498573309</v>
+      </c>
+      <c r="I294">
+        <v>177.6333186626434</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>400</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>24</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295">
+        <v>192.3928906432374</v>
+      </c>
+      <c r="G295">
+        <v>4.605685472488403</v>
+      </c>
+      <c r="H295">
+        <v>183.1432317070567</v>
+      </c>
+      <c r="I295">
+        <v>51.10086631774902</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>400</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>25</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296">
+        <v>200.4806457339306</v>
+      </c>
+      <c r="G296">
+        <v>5.022747039794922</v>
+      </c>
+      <c r="H296">
+        <v>181.54976017641</v>
+      </c>
+      <c r="I296">
+        <v>46.74455142021179</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>400</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297">
+        <v>26</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297">
+        <v>207.6262458556391</v>
+      </c>
+      <c r="G297">
+        <v>2.051562070846558</v>
+      </c>
+      <c r="H297">
+        <v>199.177038227298</v>
+      </c>
+      <c r="I297">
+        <v>576.4160850048065</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>400</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298">
+        <v>27</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298">
+        <v>191.8361266806079</v>
+      </c>
+      <c r="G298">
+        <v>4.976808071136475</v>
+      </c>
+      <c r="H298">
+        <v>184.1074744424197</v>
+      </c>
+      <c r="I298">
+        <v>52.10079145431519</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>400</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <v>28</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299">
+        <v>213.3210261272025</v>
+      </c>
+      <c r="G299">
+        <v>5.260164499282837</v>
+      </c>
+      <c r="H299">
+        <v>197.8609565306823</v>
+      </c>
+      <c r="I299">
+        <v>52.25616264343262</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>400</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>29</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300">
+        <v>197.3510446955976</v>
+      </c>
+      <c r="G300">
+        <v>3.967216491699219</v>
+      </c>
+      <c r="H300">
+        <v>185.3904301288144</v>
+      </c>
+      <c r="I300">
+        <v>49.17772197723389</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>400</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301">
+        <v>30</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301">
+        <v>208.2036512833723</v>
+      </c>
+      <c r="G301">
+        <v>5.089430809020996</v>
+      </c>
+      <c r="H301">
+        <v>191.0268444655724</v>
+      </c>
+      <c r="I301">
+        <v>1901.272641658783</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>450</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <v>456.1896557642997</v>
+      </c>
+      <c r="G302">
+        <v>1.427261829376221</v>
+      </c>
+      <c r="H302">
+        <v>445.7336626909051</v>
+      </c>
+      <c r="I302">
+        <v>320.0829684734344</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>450</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303">
+        <v>446.3728816554469</v>
+      </c>
+      <c r="G303">
+        <v>0.7151362895965576</v>
+      </c>
+      <c r="H303">
+        <v>444.5618350718</v>
+      </c>
+      <c r="I303">
+        <v>321.1477656364441</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>450</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304">
+        <v>465.1696562801433</v>
+      </c>
+      <c r="G304">
+        <v>1.15599513053894</v>
+      </c>
+      <c r="H304">
+        <v>456.9767380948524</v>
+      </c>
+      <c r="I304">
+        <v>240.4092328548431</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>450</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305">
+        <v>464.1212357588454</v>
+      </c>
+      <c r="G305">
+        <v>1.550038814544678</v>
+      </c>
+      <c r="H305">
+        <v>453.8534848550189</v>
+      </c>
+      <c r="I305">
+        <v>280.9544680118561</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>450</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306">
+        <v>436.9546567284594</v>
+      </c>
+      <c r="G306">
+        <v>2.244703531265259</v>
+      </c>
+      <c r="H306">
+        <v>434.9852645369701</v>
+      </c>
+      <c r="I306">
+        <v>276.9382882118225</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>450</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>6</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307">
+        <v>442.0663675127616</v>
+      </c>
+      <c r="G307">
+        <v>2.23420262336731</v>
+      </c>
+      <c r="H307">
+        <v>438.7242937437881</v>
+      </c>
+      <c r="I307">
+        <v>241.7438616752625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>450</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308">
+        <v>433.5022080266788</v>
+      </c>
+      <c r="G308">
+        <v>0.71209716796875</v>
+      </c>
+      <c r="H308">
+        <v>431.2248919643109</v>
+      </c>
+      <c r="I308">
+        <v>226.5731992721558</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>450</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>8</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>445.3683385304364</v>
+      </c>
+      <c r="G309">
+        <v>2.346727132797241</v>
+      </c>
+      <c r="H309">
+        <v>436.7338690763215</v>
+      </c>
+      <c r="I309">
+        <v>323.9858536720276</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>450</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>485.2930095725932</v>
+      </c>
+      <c r="G310">
+        <v>2.283147573471069</v>
+      </c>
+      <c r="H310">
+        <v>468.0511687910886</v>
+      </c>
+      <c r="I310">
+        <v>270.0529642105103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>450</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>10</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311">
+        <v>453.8697836250797</v>
+      </c>
+      <c r="G311">
+        <v>1.599818706512451</v>
+      </c>
+      <c r="H311">
+        <v>452.6644436208535</v>
+      </c>
+      <c r="I311">
+        <v>337.4609704017639</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>450</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>11</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312">
+        <v>427.236392855853</v>
+      </c>
+      <c r="G312">
+        <v>1.141982793807983</v>
+      </c>
+      <c r="H312">
+        <v>425.0233677550974</v>
+      </c>
+      <c r="I312">
+        <v>260.5678791999817</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>450</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>12</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313">
+        <v>473.9062234512818</v>
+      </c>
+      <c r="G313">
+        <v>0.9739634990692139</v>
+      </c>
+      <c r="H313">
+        <v>447.8772498519286</v>
+      </c>
+      <c r="I313">
+        <v>280.2402973175049</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>450</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>13</v>
+      </c>
+      <c r="E314" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314">
+        <v>474.1589499921378</v>
+      </c>
+      <c r="G314">
+        <v>0.9046683311462402</v>
+      </c>
+      <c r="H314">
+        <v>461.4576534382564</v>
+      </c>
+      <c r="I314">
+        <v>287.6636912822723</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>450</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>14</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315">
+        <v>453.5967776625938</v>
+      </c>
+      <c r="G315">
+        <v>0.7131233215332031</v>
+      </c>
+      <c r="H315">
+        <v>439.4720666588292</v>
+      </c>
+      <c r="I315">
+        <v>362.5900025367737</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>450</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>15</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+      <c r="F316">
+        <v>466.9092470725913</v>
+      </c>
+      <c r="G316">
+        <v>2.236103057861328</v>
+      </c>
+      <c r="H316">
+        <v>456.5138157440459</v>
+      </c>
+      <c r="I316">
+        <v>270.1691167354584</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>450</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>16</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317">
+        <v>456.5092632242004</v>
+      </c>
+      <c r="G317">
+        <v>0.7021584510803223</v>
+      </c>
+      <c r="H317">
+        <v>451.2145060510203</v>
+      </c>
+      <c r="I317">
+        <v>281.6607842445374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>450</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>17</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318">
+        <v>428.2037572131799</v>
+      </c>
+      <c r="G318">
+        <v>2.20600152015686</v>
+      </c>
+      <c r="H318">
+        <v>426.3398266344381</v>
+      </c>
+      <c r="I318">
+        <v>382.9035823345184</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>450</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>18</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319">
+        <v>473.4579961676292</v>
+      </c>
+      <c r="G319">
+        <v>1.145021677017212</v>
+      </c>
+      <c r="H319">
+        <v>466.2396664987171</v>
+      </c>
+      <c r="I319">
+        <v>212.1133601665497</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>450</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>19</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320">
+        <v>480.9540274307532</v>
+      </c>
+      <c r="G320">
+        <v>1.565813302993774</v>
+      </c>
+      <c r="H320">
+        <v>475.8235455249882</v>
+      </c>
+      <c r="I320">
+        <v>218.7226564884186</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>450</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>20</v>
+      </c>
+      <c r="E321" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321">
+        <v>449.5115163199201</v>
+      </c>
+      <c r="G321">
+        <v>1.613837242126465</v>
+      </c>
+      <c r="H321">
+        <v>448.3028943484473</v>
+      </c>
+      <c r="I321">
+        <v>320.1969361305237</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>450</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>21</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322">
+        <v>448.5370648275586</v>
+      </c>
+      <c r="G322">
+        <v>1.5754075050354</v>
+      </c>
+      <c r="H322">
+        <v>436.1715768953169</v>
+      </c>
+      <c r="I322">
+        <v>150.0294518470764</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>450</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>22</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>452.0704266859009</v>
+      </c>
+      <c r="G323">
+        <v>1.147982835769653</v>
+      </c>
+      <c r="H323">
+        <v>449.9399797013114</v>
+      </c>
+      <c r="I323">
+        <v>249.5167925357819</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>450</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>23</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+      <c r="F324">
+        <v>477.0506978160843</v>
+      </c>
+      <c r="G324">
+        <v>1.159936904907227</v>
+      </c>
+      <c r="H324">
+        <v>474.6670314306423</v>
+      </c>
+      <c r="I324">
+        <v>226.843035697937</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>450</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>24</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325">
+        <v>443.728413776196</v>
+      </c>
+      <c r="G325">
+        <v>0.8806390762329102</v>
+      </c>
+      <c r="H325">
+        <v>438.3302527694401</v>
+      </c>
+      <c r="I325">
+        <v>303.5360999107361</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>450</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>25</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326">
+        <v>464.7315017425893</v>
+      </c>
+      <c r="G326">
+        <v>2.160225629806519</v>
+      </c>
+      <c r="H326">
+        <v>450.476099308101</v>
+      </c>
+      <c r="I326">
+        <v>283.151670217514</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>450</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>26</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327">
+        <v>465.8089302086543</v>
+      </c>
+      <c r="G327">
+        <v>1.340461254119873</v>
+      </c>
+      <c r="H327">
+        <v>464.0088211366095</v>
+      </c>
+      <c r="I327">
+        <v>303.3453311920166</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>450</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>27</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328">
+        <v>450.3278307564394</v>
+      </c>
+      <c r="G328">
+        <v>0.9147956371307373</v>
+      </c>
+      <c r="H328">
+        <v>438.3880226195664</v>
+      </c>
+      <c r="I328">
+        <v>257.7989537715912</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>450</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>28</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+      <c r="F329">
+        <v>467.3720219711805</v>
+      </c>
+      <c r="G329">
+        <v>0.890718936920166</v>
+      </c>
+      <c r="H329">
+        <v>460.4750190366029</v>
+      </c>
+      <c r="I329">
+        <v>2535.219897270203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>450</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>29</v>
+      </c>
+      <c r="E330" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330">
+        <v>444.0874882378785</v>
+      </c>
+      <c r="G330">
+        <v>1.59894871711731</v>
+      </c>
+      <c r="H330">
+        <v>440.9029501582106</v>
+      </c>
+      <c r="I330">
+        <v>318.8203392028809</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>450</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331">
+        <v>467.9413481268065</v>
+      </c>
+      <c r="G331">
+        <v>2.196129083633423</v>
+      </c>
+      <c r="H331">
+        <v>458.9283085336913</v>
+      </c>
+      <c r="I331">
+        <v>318.0995011329651</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>450</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332" t="s">
+        <v>8</v>
+      </c>
+      <c r="F332">
+        <v>377.719059077713</v>
+      </c>
+      <c r="G332">
+        <v>2.621128559112549</v>
+      </c>
+      <c r="H332">
+        <v>369.147962167301</v>
+      </c>
+      <c r="I332">
+        <v>170.3478987216949</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>450</v>
+      </c>
+      <c r="C333">
+        <v>3</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+      <c r="F333">
+        <v>378.9212891946655</v>
+      </c>
+      <c r="G333">
+        <v>2.673892021179199</v>
+      </c>
+      <c r="H333">
+        <v>370.6284218809191</v>
+      </c>
+      <c r="I333">
+        <v>1670.356420755386</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>450</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>3</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334">
+        <v>375.9133379495404</v>
+      </c>
+      <c r="G334">
+        <v>2.373250961303711</v>
+      </c>
+      <c r="H334">
+        <v>372.7064684752295</v>
+      </c>
+      <c r="I334">
+        <v>172.1621360778809</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>450</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="D335">
+        <v>4</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335">
+        <v>378.4185172126413</v>
+      </c>
+      <c r="G335">
+        <v>1.315484285354614</v>
+      </c>
+      <c r="H335">
+        <v>373.7335152955857</v>
+      </c>
+      <c r="I335">
+        <v>195.9837484359741</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>450</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336">
+        <v>375.2078070310774</v>
+      </c>
+      <c r="G336">
+        <v>2.635672092437744</v>
+      </c>
+      <c r="H336">
+        <v>360.7269291048011</v>
+      </c>
+      <c r="I336">
+        <v>198.4260499477386</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>450</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>6</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+      <c r="F337">
+        <v>368.3808894083611</v>
+      </c>
+      <c r="G337">
+        <v>1.84418511390686</v>
+      </c>
+      <c r="H337">
+        <v>362.4998846031394</v>
+      </c>
+      <c r="I337">
+        <v>203.4219038486481</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>450</v>
+      </c>
+      <c r="C338">
+        <v>3</v>
+      </c>
+      <c r="D338">
+        <v>7</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338">
+        <v>372.2479560078299</v>
+      </c>
+      <c r="G338">
+        <v>2.595246315002441</v>
+      </c>
+      <c r="H338">
+        <v>356.9107444168932</v>
+      </c>
+      <c r="I338">
+        <v>232.5268497467041</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>450</v>
+      </c>
+      <c r="C339">
+        <v>3</v>
+      </c>
+      <c r="D339">
+        <v>8</v>
+      </c>
+      <c r="E339" t="s">
+        <v>8</v>
+      </c>
+      <c r="F339">
+        <v>362.5914096608918</v>
+      </c>
+      <c r="G339">
+        <v>1.30152153968811</v>
+      </c>
+      <c r="H339">
+        <v>358.3333477456679</v>
+      </c>
+      <c r="I339">
+        <v>155.3644659519196</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>450</v>
+      </c>
+      <c r="C340">
+        <v>3</v>
+      </c>
+      <c r="D340">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>8</v>
+      </c>
+      <c r="F340">
+        <v>406.0502025144996</v>
+      </c>
+      <c r="G340">
+        <v>1.057329654693604</v>
+      </c>
+      <c r="H340">
+        <v>389.6376301550892</v>
+      </c>
+      <c r="I340">
+        <v>205.3289575576782</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>450</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341">
+        <v>385.0100598900822</v>
+      </c>
+      <c r="G341">
+        <v>2.740708827972412</v>
+      </c>
+      <c r="H341">
+        <v>379.5384086072944</v>
+      </c>
+      <c r="I341">
+        <v>204.5555205345154</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>450</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+      <c r="D342">
+        <v>11</v>
+      </c>
+      <c r="E342" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342">
+        <v>353.5404221300308</v>
+      </c>
+      <c r="G342">
+        <v>2.608083009719849</v>
+      </c>
+      <c r="H342">
+        <v>348.8642121117505</v>
+      </c>
+      <c r="I342">
+        <v>245.2577311992645</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>450</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+      <c r="D343">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343">
+        <v>384.6706542624299</v>
+      </c>
+      <c r="G343">
+        <v>1.094413995742798</v>
+      </c>
+      <c r="H343">
+        <v>374.5070546315351</v>
+      </c>
+      <c r="I343">
+        <v>134.731751203537</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>450</v>
+      </c>
+      <c r="C344">
+        <v>3</v>
+      </c>
+      <c r="D344">
+        <v>13</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344">
+        <v>391.0480891640146</v>
+      </c>
+      <c r="G344">
+        <v>1.368340492248535</v>
+      </c>
+      <c r="H344">
+        <v>380.5682303411455</v>
+      </c>
+      <c r="I344">
+        <v>183.3463227748871</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>450</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+      <c r="D345">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345">
+        <v>366.5298524185058</v>
+      </c>
+      <c r="G345">
+        <v>2.656984090805054</v>
+      </c>
+      <c r="H345">
+        <v>364.608825639377</v>
+      </c>
+      <c r="I345">
+        <v>181.013201713562</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>450</v>
+      </c>
+      <c r="C346">
+        <v>3</v>
+      </c>
+      <c r="D346">
+        <v>15</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346">
+        <v>386.6036478376093</v>
+      </c>
+      <c r="G346">
+        <v>1.633633852005005</v>
+      </c>
+      <c r="H346">
+        <v>381.3722914075173</v>
+      </c>
+      <c r="I346">
+        <v>181.3837895393372</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>450</v>
+      </c>
+      <c r="C347">
+        <v>3</v>
+      </c>
+      <c r="D347">
+        <v>16</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347">
+        <v>368.6429639833599</v>
+      </c>
+      <c r="G347">
+        <v>1.086134195327759</v>
+      </c>
+      <c r="H347">
+        <v>366.1184351648616</v>
+      </c>
+      <c r="I347">
+        <v>196.2823121547699</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>450</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
+      </c>
+      <c r="D348">
+        <v>17</v>
+      </c>
+      <c r="E348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348">
+        <v>362.3735926876612</v>
+      </c>
+      <c r="G348">
+        <v>2.630081415176392</v>
+      </c>
+      <c r="H348">
+        <v>358.5288691406041</v>
+      </c>
+      <c r="I348">
+        <v>222.4337084293365</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>450</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+      <c r="D349">
+        <v>18</v>
+      </c>
+      <c r="E349" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349">
+        <v>389.9093848036955</v>
+      </c>
+      <c r="G349">
+        <v>2.367664575576782</v>
+      </c>
+      <c r="H349">
+        <v>382.8754894534817</v>
+      </c>
+      <c r="I349">
+        <v>188.4753196239471</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>450</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>19</v>
+      </c>
+      <c r="E350" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350">
+        <v>398.802458440361</v>
+      </c>
+      <c r="G350">
+        <v>2.340322256088257</v>
+      </c>
+      <c r="H350">
+        <v>390.4477818657832</v>
+      </c>
+      <c r="I350">
+        <v>201.4333066940308</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>450</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+      <c r="D351">
+        <v>20</v>
+      </c>
+      <c r="E351" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351">
+        <v>391.3497169173509</v>
+      </c>
+      <c r="G351">
+        <v>2.639360904693604</v>
+      </c>
+      <c r="H351">
+        <v>371.2115390395043</v>
+      </c>
+      <c r="I351">
+        <v>231.9027664661407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>450</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>21</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+      <c r="F352">
+        <v>371.4719184540874</v>
+      </c>
+      <c r="G352">
+        <v>2.640316724777222</v>
+      </c>
+      <c r="H352">
+        <v>363.591081440542</v>
+      </c>
+      <c r="I352">
+        <v>198.83775639534</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>450</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>22</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+      <c r="F353">
+        <v>386.6717923449957</v>
+      </c>
+      <c r="G353">
+        <v>1.33354663848877</v>
+      </c>
+      <c r="H353">
+        <v>375.2358423379142</v>
+      </c>
+      <c r="I353">
+        <v>187.003173828125</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>450</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>23</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+      <c r="F354">
+        <v>393.5784540682384</v>
+      </c>
+      <c r="G354">
+        <v>1.633669376373291</v>
+      </c>
+      <c r="H354">
+        <v>387.0149947396586</v>
+      </c>
+      <c r="I354">
+        <v>210.4195876121521</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>450</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>24</v>
+      </c>
+      <c r="E355" t="s">
+        <v>8</v>
+      </c>
+      <c r="F355">
+        <v>366.0417866351513</v>
+      </c>
+      <c r="G355">
+        <v>2.084573030471802</v>
+      </c>
+      <c r="H355">
+        <v>359.1825461091352</v>
+      </c>
+      <c r="I355">
+        <v>170.9948213100433</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>450</v>
+      </c>
+      <c r="C356">
+        <v>3</v>
+      </c>
+      <c r="D356">
+        <v>25</v>
+      </c>
+      <c r="E356" t="s">
+        <v>8</v>
+      </c>
+      <c r="F356">
+        <v>375.7277483285134</v>
+      </c>
+      <c r="G356">
+        <v>1.079115390777588</v>
+      </c>
+      <c r="H356">
+        <v>367.5393952628885</v>
+      </c>
+      <c r="I356">
+        <v>160.7938060760498</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>450</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>26</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+      <c r="F357">
+        <v>379.8320761886005</v>
+      </c>
+      <c r="G357">
+        <v>2.084463834762573</v>
+      </c>
+      <c r="H357">
+        <v>377.913650801822</v>
+      </c>
+      <c r="I357">
+        <v>243.3760848045349</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>450</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+      <c r="D358">
+        <v>27</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358">
+        <v>367.3450204650732</v>
+      </c>
+      <c r="G358">
+        <v>2.607145071029663</v>
+      </c>
+      <c r="H358">
+        <v>359.8121583241659</v>
+      </c>
+      <c r="I358">
+        <v>192.5561792850494</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>450</v>
+      </c>
+      <c r="C359">
+        <v>3</v>
+      </c>
+      <c r="D359">
+        <v>28</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359">
+        <v>395.0894238366645</v>
+      </c>
+      <c r="G359">
+        <v>1.073133707046509</v>
+      </c>
+      <c r="H359">
+        <v>377.2602503061398</v>
+      </c>
+      <c r="I359">
+        <v>190.4606792926788</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>450</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>29</v>
+      </c>
+      <c r="E360" t="s">
+        <v>8</v>
+      </c>
+      <c r="F360">
+        <v>384.9649557854912</v>
+      </c>
+      <c r="G360">
+        <v>2.582098722457886</v>
+      </c>
+      <c r="H360">
+        <v>367.5989102281544</v>
+      </c>
+      <c r="I360">
+        <v>192.3220806121826</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>450</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+      <c r="D361">
+        <v>30</v>
+      </c>
+      <c r="E361" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361">
+        <v>381.7895122359012</v>
+      </c>
+      <c r="G361">
+        <v>1.669584989547729</v>
+      </c>
+      <c r="H361">
+        <v>376.9603387434609</v>
+      </c>
+      <c r="I361">
+        <v>2235.428680419922</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>450</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362">
+        <v>347.8873448851896</v>
+      </c>
+      <c r="G362">
+        <v>2.252355575561523</v>
+      </c>
+      <c r="H362">
+        <v>328.0638948254731</v>
+      </c>
+      <c r="I362">
+        <v>1487.036337137222</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>450</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363">
+        <v>356.214006115378</v>
+      </c>
+      <c r="G363">
+        <v>3.045860767364502</v>
+      </c>
+      <c r="H363">
+        <v>329.7079335654585</v>
+      </c>
+      <c r="I363">
+        <v>186.4643864631653</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>450</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364">
+        <v>335.3738088273764</v>
+      </c>
+      <c r="G364">
+        <v>1.886445045471191</v>
+      </c>
+      <c r="H364">
+        <v>326.0488447470856</v>
+      </c>
+      <c r="I364">
+        <v>153.4821171760559</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>450</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <v>4</v>
+      </c>
+      <c r="E365" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365">
+        <v>342.8706425563977</v>
+      </c>
+      <c r="G365">
+        <v>1.574793100357056</v>
+      </c>
+      <c r="H365">
+        <v>327.7236761211144</v>
+      </c>
+      <c r="I365">
+        <v>171.9672682285309</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>450</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+      <c r="F366">
+        <v>331.846002450761</v>
+      </c>
+      <c r="G366">
+        <v>3.084789514541626</v>
+      </c>
+      <c r="H366">
+        <v>322.4691490841809</v>
+      </c>
+      <c r="I366">
+        <v>5556.310636997223</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>450</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>6</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+      <c r="F367">
+        <v>330.8544369881814</v>
+      </c>
+      <c r="G367">
+        <v>3.263282299041748</v>
+      </c>
+      <c r="H367">
+        <v>326.635820133519</v>
+      </c>
+      <c r="I367">
+        <v>151.8490080833435</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>450</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+      <c r="D368">
+        <v>7</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F368">
+        <v>324.0287103534505</v>
+      </c>
+      <c r="G368">
+        <v>3.109673738479614</v>
+      </c>
+      <c r="H368">
+        <v>317.8629096418684</v>
+      </c>
+      <c r="I368">
+        <v>204.4322149753571</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>450</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369">
+        <v>8</v>
+      </c>
+      <c r="E369" t="s">
+        <v>8</v>
+      </c>
+      <c r="F369">
+        <v>316.9408683565027</v>
+      </c>
+      <c r="G369">
+        <v>1.621970415115356</v>
+      </c>
+      <c r="H369">
+        <v>313.8800382688548</v>
+      </c>
+      <c r="I369">
+        <v>154.9039850234985</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>450</v>
+      </c>
+      <c r="C370">
+        <v>4</v>
+      </c>
+      <c r="D370">
+        <v>9</v>
+      </c>
+      <c r="E370" t="s">
+        <v>8</v>
+      </c>
+      <c r="F370">
+        <v>351.5137885583664</v>
+      </c>
+      <c r="G370">
+        <v>2.492351293563843</v>
+      </c>
+      <c r="H370">
+        <v>343.0646284086671</v>
+      </c>
+      <c r="I370">
+        <v>169.3064119815826</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>450</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+      <c r="D371">
+        <v>10</v>
+      </c>
+      <c r="E371" t="s">
+        <v>8</v>
+      </c>
+      <c r="F371">
+        <v>347.5209720175875</v>
+      </c>
+      <c r="G371">
+        <v>3.029899597167969</v>
+      </c>
+      <c r="H371">
+        <v>332.6762927239843</v>
+      </c>
+      <c r="I371">
+        <v>176.5001792907715</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>450</v>
+      </c>
+      <c r="C372">
+        <v>4</v>
+      </c>
+      <c r="D372">
+        <v>11</v>
+      </c>
+      <c r="E372" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372">
+        <v>332.2506171927132</v>
+      </c>
+      <c r="G372">
+        <v>3.055876016616821</v>
+      </c>
+      <c r="H372">
+        <v>312.3350828135857</v>
+      </c>
+      <c r="I372">
+        <v>220.7608168125153</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>450</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+      <c r="F373">
+        <v>333.4837468844423</v>
+      </c>
+      <c r="G373">
+        <v>3.07580041885376</v>
+      </c>
+      <c r="H373">
+        <v>327.7509646981291</v>
+      </c>
+      <c r="I373">
+        <v>155.1697585582733</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>450</v>
+      </c>
+      <c r="C374">
+        <v>4</v>
+      </c>
+      <c r="D374">
+        <v>13</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+      <c r="F374">
+        <v>336.107629840034</v>
+      </c>
+      <c r="G374">
+        <v>2.146687269210815</v>
+      </c>
+      <c r="H374">
+        <v>332.8303606931869</v>
+      </c>
+      <c r="I374">
+        <v>139.6883943080902</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>450</v>
+      </c>
+      <c r="C375">
+        <v>4</v>
+      </c>
+      <c r="D375">
+        <v>14</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+      <c r="F375">
+        <v>326.5129198044115</v>
+      </c>
+      <c r="G375">
+        <v>2.415624618530273</v>
+      </c>
+      <c r="H375">
+        <v>322.5179769129576</v>
+      </c>
+      <c r="I375">
+        <v>196.4760510921478</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>450</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>15</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
+      </c>
+      <c r="F376">
+        <v>345.3823538346118</v>
+      </c>
+      <c r="G376">
+        <v>2.523292779922485</v>
+      </c>
+      <c r="H376">
+        <v>339.3553601219854</v>
+      </c>
+      <c r="I376">
+        <v>185.9443216323853</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>450</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377">
+        <v>331.749019559106</v>
+      </c>
+      <c r="G377">
+        <v>2.178176641464233</v>
+      </c>
+      <c r="H377">
+        <v>321.7475585490191</v>
+      </c>
+      <c r="I377">
+        <v>190.745676279068</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>450</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+      <c r="D378">
+        <v>17</v>
+      </c>
+      <c r="E378" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378">
+        <v>329.8960488381865</v>
+      </c>
+      <c r="G378">
+        <v>1.541902303695679</v>
+      </c>
+      <c r="H378">
+        <v>321.4064156837164</v>
+      </c>
+      <c r="I378">
+        <v>152.7764840126038</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>450</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+      <c r="D379">
+        <v>18</v>
+      </c>
+      <c r="E379" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379">
+        <v>349.0892364021312</v>
+      </c>
+      <c r="G379">
+        <v>2.134332180023193</v>
+      </c>
+      <c r="H379">
+        <v>341.4080012536288</v>
+      </c>
+      <c r="I379">
+        <v>1378.954644203186</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>450</v>
+      </c>
+      <c r="C380">
+        <v>4</v>
+      </c>
+      <c r="D380">
+        <v>19</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380">
+        <v>355.3552283257241</v>
+      </c>
+      <c r="G380">
+        <v>2.176186323165894</v>
+      </c>
+      <c r="H380">
+        <v>342.3450419501186</v>
+      </c>
+      <c r="I380">
+        <v>143.8643877506256</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>450</v>
+      </c>
+      <c r="C381">
+        <v>4</v>
+      </c>
+      <c r="D381">
+        <v>20</v>
+      </c>
+      <c r="E381" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381">
+        <v>336.0137599806575</v>
+      </c>
+      <c r="G381">
+        <v>3.31018590927124</v>
+      </c>
+      <c r="H381">
+        <v>330.9326951015401</v>
+      </c>
+      <c r="I381">
+        <v>2588.010175228119</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>450</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382">
+        <v>21</v>
+      </c>
+      <c r="E382" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382">
+        <v>326.5396600152197</v>
+      </c>
+      <c r="G382">
+        <v>2.992452383041382</v>
+      </c>
+      <c r="H382">
+        <v>320.5126962813167</v>
+      </c>
+      <c r="I382">
+        <v>158.3138430118561</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>450</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+      <c r="D383">
+        <v>22</v>
+      </c>
+      <c r="E383" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383">
+        <v>344.3421989299113</v>
+      </c>
+      <c r="G383">
+        <v>3.14897346496582</v>
+      </c>
+      <c r="H383">
+        <v>333.0942076174115</v>
+      </c>
+      <c r="I383">
+        <v>2205.185660362244</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>450</v>
+      </c>
+      <c r="C384">
+        <v>4</v>
+      </c>
+      <c r="D384">
+        <v>23</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384">
+        <v>355.7660378093802</v>
+      </c>
+      <c r="G384">
+        <v>3.076756715774536</v>
+      </c>
+      <c r="H384">
+        <v>344.9564818773929</v>
+      </c>
+      <c r="I384">
+        <v>202.6702377796173</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>450</v>
+      </c>
+      <c r="C385">
+        <v>4</v>
+      </c>
+      <c r="D385">
+        <v>24</v>
+      </c>
+      <c r="E385" t="s">
+        <v>8</v>
+      </c>
+      <c r="F385">
+        <v>317.5932499094779</v>
+      </c>
+      <c r="G385">
+        <v>3.232029676437378</v>
+      </c>
+      <c r="H385">
+        <v>312.1674445073066</v>
+      </c>
+      <c r="I385">
+        <v>207.4758381843567</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>450</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+      <c r="D386">
+        <v>25</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386">
+        <v>330.9005316067219</v>
+      </c>
+      <c r="G386">
+        <v>2.128047704696655</v>
+      </c>
+      <c r="H386">
+        <v>322.5007500935564</v>
+      </c>
+      <c r="I386">
+        <v>189.2763342857361</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>450</v>
+      </c>
+      <c r="C387">
+        <v>4</v>
+      </c>
+      <c r="D387">
+        <v>26</v>
+      </c>
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387">
+        <v>356.4234967920767</v>
+      </c>
+      <c r="G387">
+        <v>1.404173612594604</v>
+      </c>
+      <c r="H387">
+        <v>337.8909623878898</v>
+      </c>
+      <c r="I387">
+        <v>190.5473868846893</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>450</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+      <c r="D388">
+        <v>27</v>
+      </c>
+      <c r="E388" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388">
+        <v>330.7762995879491</v>
+      </c>
+      <c r="G388">
+        <v>1.646633148193359</v>
+      </c>
+      <c r="H388">
+        <v>316.3077435587674</v>
+      </c>
+      <c r="I388">
+        <v>3772.215718507767</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>450</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+      <c r="D389">
+        <v>28</v>
+      </c>
+      <c r="E389" t="s">
+        <v>8</v>
+      </c>
+      <c r="F389">
+        <v>346.3561099781525</v>
+      </c>
+      <c r="G389">
+        <v>2.373594760894775</v>
+      </c>
+      <c r="H389">
+        <v>338.0703503689534</v>
+      </c>
+      <c r="I389">
+        <v>158.4551351070404</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>450</v>
+      </c>
+      <c r="C390">
+        <v>4</v>
+      </c>
+      <c r="D390">
+        <v>29</v>
+      </c>
+      <c r="E390" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390">
+        <v>336.3478657551441</v>
+      </c>
+      <c r="G390">
+        <v>2.21016526222229</v>
+      </c>
+      <c r="H390">
+        <v>325.6277644582573</v>
+      </c>
+      <c r="I390">
+        <v>236.6040823459625</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>450</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391">
+        <v>30</v>
+      </c>
+      <c r="E391" t="s">
+        <v>8</v>
+      </c>
+      <c r="F391">
+        <v>350.9473306825981</v>
+      </c>
+      <c r="G391">
+        <v>2.186163902282715</v>
+      </c>
+      <c r="H391">
+        <v>332.2871094685893</v>
+      </c>
+      <c r="I391">
+        <v>229.0826637744904</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>450</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>8</v>
+      </c>
+      <c r="F392">
+        <v>313.0470928066021</v>
+      </c>
+      <c r="G392">
+        <v>3.598304271697998</v>
+      </c>
+      <c r="H392">
+        <v>297.328243817169</v>
+      </c>
+      <c r="I392">
+        <v>137.0420372486115</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>450</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393" t="s">
+        <v>8</v>
+      </c>
+      <c r="F393">
+        <v>311.0013779435698</v>
+      </c>
+      <c r="G393">
+        <v>3.858722448348999</v>
+      </c>
+      <c r="H393">
+        <v>298.8928562875918</v>
+      </c>
+      <c r="I393">
+        <v>109.9337549209595</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>450</v>
+      </c>
+      <c r="C394">
+        <v>5</v>
+      </c>
+      <c r="D394">
+        <v>3</v>
+      </c>
+      <c r="E394" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394">
+        <v>307.9974514592857</v>
+      </c>
+      <c r="G394">
+        <v>2.846427440643311</v>
+      </c>
+      <c r="H394">
+        <v>295.1101386173962</v>
+      </c>
+      <c r="I394">
+        <v>148.0613386631012</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>450</v>
+      </c>
+      <c r="C395">
+        <v>5</v>
+      </c>
+      <c r="D395">
+        <v>4</v>
+      </c>
+      <c r="E395" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395">
+        <v>303.4731814862531</v>
+      </c>
+      <c r="G395">
+        <v>1.747366905212402</v>
+      </c>
+      <c r="H395">
+        <v>294.7178486655082</v>
+      </c>
+      <c r="I395">
+        <v>139.5428624153137</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>450</v>
+      </c>
+      <c r="C396">
+        <v>5</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
+      </c>
+      <c r="E396" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396">
+        <v>298.4483766646779</v>
+      </c>
+      <c r="G396">
+        <v>1.852150440216064</v>
+      </c>
+      <c r="H396">
+        <v>287.204358103497</v>
+      </c>
+      <c r="I396">
+        <v>148.7400143146515</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>450</v>
+      </c>
+      <c r="C397">
+        <v>5</v>
+      </c>
+      <c r="D397">
+        <v>6</v>
+      </c>
+      <c r="E397" t="s">
+        <v>8</v>
+      </c>
+      <c r="F397">
+        <v>320.8908543917856</v>
+      </c>
+      <c r="G397">
+        <v>3.905681610107422</v>
+      </c>
+      <c r="H397">
+        <v>299.0740920764857</v>
+      </c>
+      <c r="I397">
+        <v>9741.615338802338</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>450</v>
+      </c>
+      <c r="C398">
+        <v>5</v>
+      </c>
+      <c r="D398">
+        <v>7</v>
+      </c>
+      <c r="E398" t="s">
+        <v>8</v>
+      </c>
+      <c r="F398">
+        <v>293.6691100358383</v>
+      </c>
+      <c r="G398">
+        <v>3.736151933670044</v>
+      </c>
+      <c r="H398">
+        <v>290.2598371946606</v>
+      </c>
+      <c r="I398">
+        <v>7993.569537162781</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>450</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>8</v>
+      </c>
+      <c r="E399" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399">
+        <v>302.0406878565283</v>
+      </c>
+      <c r="G399">
+        <v>3.722037553787231</v>
+      </c>
+      <c r="H399">
+        <v>287.148533670652</v>
+      </c>
+      <c r="I399">
+        <v>2288.403986215591</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>450</v>
+      </c>
+      <c r="C400">
+        <v>5</v>
+      </c>
+      <c r="D400">
+        <v>9</v>
+      </c>
+      <c r="E400" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400">
+        <v>320.0124164225107</v>
+      </c>
+      <c r="G400">
+        <v>3.409921169281006</v>
+      </c>
+      <c r="H400">
+        <v>304.824765452126</v>
+      </c>
+      <c r="I400">
+        <v>146.0815448760986</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>450</v>
+      </c>
+      <c r="C401">
+        <v>5</v>
+      </c>
+      <c r="D401">
+        <v>10</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401">
+        <v>308.9051947820972</v>
+      </c>
+      <c r="G401">
+        <v>2.059618949890137</v>
+      </c>
+      <c r="H401">
+        <v>301.0185964861897</v>
+      </c>
+      <c r="I401">
+        <v>114.8381590843201</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>450</v>
+      </c>
+      <c r="C402">
+        <v>5</v>
+      </c>
+      <c r="D402">
+        <v>11</v>
+      </c>
+      <c r="E402" t="s">
+        <v>8</v>
+      </c>
+      <c r="F402">
+        <v>294.1157025817374</v>
+      </c>
+      <c r="G402">
+        <v>1.744042634963989</v>
+      </c>
+      <c r="H402">
+        <v>285.7369186699444</v>
+      </c>
+      <c r="I402">
+        <v>8868.508215665817</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>450</v>
+      </c>
+      <c r="C403">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>12</v>
+      </c>
+      <c r="E403" t="s">
+        <v>8</v>
+      </c>
+      <c r="F403">
+        <v>316.7864180921115</v>
+      </c>
+      <c r="G403">
+        <v>1.787342309951782</v>
+      </c>
+      <c r="H403">
+        <v>299.8461027978165</v>
+      </c>
+      <c r="I403">
+        <v>130.6448776721954</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>450</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>13</v>
+      </c>
+      <c r="E404" t="s">
+        <v>8</v>
+      </c>
+      <c r="F404">
+        <v>303.27452382545</v>
+      </c>
+      <c r="G404">
+        <v>2.126479625701904</v>
+      </c>
+      <c r="H404">
+        <v>298.6775390558965</v>
+      </c>
+      <c r="I404">
+        <v>1331.343485116959</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>450</v>
+      </c>
+      <c r="C405">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>14</v>
+      </c>
+      <c r="E405" t="s">
+        <v>8</v>
+      </c>
+      <c r="F405">
+        <v>295.8009317443706</v>
+      </c>
+      <c r="G405">
+        <v>3.508654594421387</v>
+      </c>
+      <c r="H405">
+        <v>291.7681901723184</v>
+      </c>
+      <c r="I405">
+        <v>129.0857796669006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>450</v>
+      </c>
+      <c r="C406">
+        <v>5</v>
+      </c>
+      <c r="D406">
+        <v>15</v>
+      </c>
+      <c r="E406" t="s">
+        <v>8</v>
+      </c>
+      <c r="F406">
+        <v>316.1696425406155</v>
+      </c>
+      <c r="G406">
+        <v>3.79988694190979</v>
+      </c>
+      <c r="H406">
+        <v>308.9773902537298</v>
+      </c>
+      <c r="I406">
+        <v>1195.343241214752</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>450</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+      <c r="D407">
+        <v>16</v>
+      </c>
+      <c r="E407" t="s">
+        <v>8</v>
+      </c>
+      <c r="F407">
+        <v>301.7816186937999</v>
+      </c>
+      <c r="G407">
+        <v>2.435524940490723</v>
+      </c>
+      <c r="H407">
+        <v>292.3648679037391</v>
+      </c>
+      <c r="I407">
+        <v>159.0976793766022</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>450</v>
+      </c>
+      <c r="C408">
+        <v>5</v>
+      </c>
+      <c r="D408">
+        <v>17</v>
+      </c>
+      <c r="E408" t="s">
+        <v>8</v>
+      </c>
+      <c r="F408">
+        <v>314.2949537890619</v>
+      </c>
+      <c r="G408">
+        <v>2.068510293960571</v>
+      </c>
+      <c r="H408">
+        <v>289.8202336063482</v>
+      </c>
+      <c r="I408">
+        <v>6324.127587795258</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>450</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+      <c r="D409">
+        <v>18</v>
+      </c>
+      <c r="E409" t="s">
+        <v>8</v>
+      </c>
+      <c r="F409">
+        <v>329.017587023081</v>
+      </c>
+      <c r="G409">
+        <v>1.91209077835083</v>
+      </c>
+      <c r="H409">
+        <v>309.9151310578184</v>
+      </c>
+      <c r="I409">
+        <v>151.3952231407166</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>450</v>
+      </c>
+      <c r="C410">
+        <v>5</v>
+      </c>
+      <c r="D410">
+        <v>19</v>
+      </c>
+      <c r="E410" t="s">
+        <v>8</v>
+      </c>
+      <c r="F410">
+        <v>325.1564406953557</v>
+      </c>
+      <c r="G410">
+        <v>2.052514553070068</v>
+      </c>
+      <c r="H410">
+        <v>308.4602381822824</v>
+      </c>
+      <c r="I410">
+        <v>127.1719443798065</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>450</v>
+      </c>
+      <c r="C411">
+        <v>5</v>
+      </c>
+      <c r="D411">
+        <v>20</v>
+      </c>
+      <c r="E411" t="s">
+        <v>8</v>
+      </c>
+      <c r="F411">
+        <v>307.2826724502434</v>
+      </c>
+      <c r="G411">
+        <v>3.488675594329834</v>
+      </c>
+      <c r="H411">
+        <v>301.4502230151639</v>
+      </c>
+      <c r="I411">
+        <v>3715.10173034668</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>450</v>
+      </c>
+      <c r="C412">
+        <v>5</v>
+      </c>
+      <c r="D412">
+        <v>21</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+      <c r="F412">
+        <v>298.4513639733581</v>
+      </c>
+      <c r="G412">
+        <v>2.642362833023071</v>
+      </c>
+      <c r="H412">
+        <v>285.2917086707891</v>
+      </c>
+      <c r="I412">
+        <v>120.6654589176178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results2.xlsx
+++ b/results2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12349,6 +12349,93 @@
         <v>120.6654589176178</v>
       </c>
     </row>
+    <row r="413" spans="1:9">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>450</v>
+      </c>
+      <c r="C413">
+        <v>5</v>
+      </c>
+      <c r="D413">
+        <v>22</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413">
+        <v>319.5598320393727</v>
+      </c>
+      <c r="G413">
+        <v>3.537623882293701</v>
+      </c>
+      <c r="H413">
+        <v>304.3383580052724</v>
+      </c>
+      <c r="I413">
+        <v>10307.93405985832</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>450</v>
+      </c>
+      <c r="C414">
+        <v>5</v>
+      </c>
+      <c r="D414">
+        <v>23</v>
+      </c>
+      <c r="E414" t="s">
+        <v>8</v>
+      </c>
+      <c r="F414">
+        <v>325.5641788787422</v>
+      </c>
+      <c r="G414">
+        <v>2.094451427459717</v>
+      </c>
+      <c r="H414">
+        <v>314.849274626913</v>
+      </c>
+      <c r="I414">
+        <v>137.9996070861816</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>450</v>
+      </c>
+      <c r="C415">
+        <v>5</v>
+      </c>
+      <c r="D415">
+        <v>24</v>
+      </c>
+      <c r="E415" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415">
+        <v>300.8508593454567</v>
+      </c>
+      <c r="G415">
+        <v>4.054600477218628</v>
+      </c>
+      <c r="H415">
+        <v>285.6284395611223</v>
+      </c>
+      <c r="I415">
+        <v>161.9607758522034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
